--- a/test_suite_cnj04制证.xlsx
+++ b/test_suite_cnj04制证.xlsx
@@ -202,7 +202,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001</t>
+    <t>cnj_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -214,7 +214,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>cnj_st_002</t>
+    <t>cnj_st_002_我的待办进入</t>
   </si>
   <si>
     <t>海口政务系统-我的待办进入</t>
@@ -226,10 +226,10 @@
     <t>进入我的待办操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003</t>
-  </si>
-  <si>
-    <t>cnj_st_004</t>
+    <t>cnj_st_003_待办制证</t>
+  </si>
+  <si>
+    <t>cnj_st_004_制证查询</t>
   </si>
   <si>
     <t>制证-查询待办事项</t>
@@ -241,7 +241,7 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>cnj_st_005</t>
+    <t>cnj_st_005_制证流程</t>
   </si>
   <si>
     <t>制证事项信息验证、通过</t>
@@ -300,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -331,18 +331,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,8 +376,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,14 +438,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -400,16 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -417,14 +454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,36 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,181 +483,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,18 +679,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +703,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -721,6 +723,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,17 +757,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +774,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,145 +782,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,12 +1708,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="43.875" style="17" customWidth="1"/>
@@ -1823,12 +1823,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="2" customWidth="1"/>

--- a/test_suite_cnj04制证.xlsx
+++ b/test_suite_cnj04制证.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -331,31 +331,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +363,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +399,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -391,8 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +424,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,42 +454,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,14 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,19 +483,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,163 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,12 +677,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -727,17 +740,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,15 +769,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -782,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,133 +794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,7 +1823,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
